--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value220.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value220.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.112719571476939</v>
+        <v>1.339434623718262</v>
       </c>
       <c r="B1">
-        <v>1.350562433593961</v>
+        <v>2.466507911682129</v>
       </c>
       <c r="C1">
-        <v>1.376430996460573</v>
+        <v>4.842360973358154</v>
       </c>
       <c r="D1">
-        <v>1.470967370404497</v>
+        <v>2.441564321517944</v>
       </c>
       <c r="E1">
-        <v>1.765859952427294</v>
+        <v>0.9265078902244568</v>
       </c>
     </row>
   </sheetData>
